--- a/data/output/FV2404_FV2310/UTILMD/55113.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55113.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6891" uniqueCount="508">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="508">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1729,6 +1729,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U314" totalsRowShown="0">
+  <autoFilter ref="A1:U314"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2018,7 +2048,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16787,5 +16820,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55113.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55113.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8323" uniqueCount="814">
   <si>
     <t>#</t>
   </si>
@@ -7932,46 +7932,44 @@
       <c r="V96" s="9"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M97" s="2" t="s">
+      <c r="L97" s="7"/>
+      <c r="M97" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="N97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2" t="s">
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="V97" s="2" t="s">
+      <c r="V97" s="5" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8242,44 +8240,42 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2" t="s">
+      <c r="C103" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M103" s="2" t="s">
+      <c r="K103" s="5"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2" t="s">
+      <c r="N103" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V103" s="2"/>
+      <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="2" t="s">
@@ -8471,9 +8467,7 @@
         <v>339</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L107" s="7"/>
       <c r="M107" s="2" t="s">
         <v>46</v>
       </c>
@@ -8500,46 +8494,44 @@
       <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2" t="s">
+      <c r="C108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L108" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M108" s="2" t="s">
+      <c r="L108" s="7"/>
+      <c r="M108" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2" t="s">
+      <c r="N108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="V108" s="2" t="s">
+      <c r="V108" s="5" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9215,9 +9207,7 @@
         <v>339</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L121" s="7"/>
       <c r="M121" s="2" t="s">
         <v>43</v>
       </c>
@@ -9372,46 +9362,44 @@
       <c r="V124" s="9"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="C125" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M125" s="2" t="s">
+      <c r="L125" s="7"/>
+      <c r="M125" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2" t="s">
+      <c r="N125" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="V125" s="5" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9651,9 +9639,7 @@
         <v>339</v>
       </c>
       <c r="K130" s="2"/>
-      <c r="L130" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L130" s="7"/>
       <c r="M130" s="2" t="s">
         <v>49</v>
       </c>
@@ -9707,9 +9693,7 @@
         <v>339</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L131" s="7"/>
       <c r="M131" s="2" t="s">
         <v>49</v>
       </c>
@@ -9763,9 +9747,7 @@
         <v>339</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L132" s="7"/>
       <c r="M132" s="2" t="s">
         <v>49</v>
       </c>
@@ -9792,44 +9774,42 @@
       <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
+      <c r="C133" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M133" s="2" t="s">
+      <c r="K133" s="5"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2" t="s">
+      <c r="N133" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V133" s="2"/>
+      <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="2" t="s">
@@ -10067,9 +10047,7 @@
         <v>339</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L138" s="7"/>
       <c r="M138" s="2" t="s">
         <v>50</v>
       </c>
@@ -10096,46 +10074,44 @@
       <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N139" s="2" t="s">
+      <c r="N139" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="5" t="s">
         <v>399</v>
       </c>
     </row>
@@ -10406,46 +10382,44 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="N145" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>400</v>
       </c>
     </row>
@@ -10670,44 +10644,42 @@
       <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
+      <c r="C150" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M150" s="2" t="s">
+      <c r="K150" s="5"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N150" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2" t="s">
+      <c r="N150" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V150" s="2"/>
+      <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="2" t="s">
@@ -10972,44 +10944,42 @@
       <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="C156" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="K156" s="5"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="N156" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V156" s="2"/>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="2" t="s">
@@ -11201,9 +11171,7 @@
         <v>339</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L160" s="7"/>
       <c r="M160" s="2" t="s">
         <v>54</v>
       </c>
@@ -11230,46 +11198,44 @@
       <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L161" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M161" s="2" t="s">
+      <c r="L161" s="7"/>
+      <c r="M161" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="N161" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2" t="s">
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="V161" s="2" t="s">
+      <c r="V161" s="5" t="s">
         <v>402</v>
       </c>
     </row>
@@ -12548,46 +12514,44 @@
       <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M187" s="2" t="s">
+      <c r="L187" s="7"/>
+      <c r="M187" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="N187" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2" t="s">
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="V187" s="2" t="s">
+      <c r="V187" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -12808,46 +12772,44 @@
       <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2" t="s">
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="K192" s="2" t="s">
+      <c r="K192" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L192" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M192" s="2" t="s">
+      <c r="L192" s="7"/>
+      <c r="M192" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="N192" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2" t="s">
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="V192" s="2" t="s">
+      <c r="V192" s="5" t="s">
         <v>409</v>
       </c>
     </row>
@@ -13068,44 +13030,42 @@
       <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2" t="s">
+      <c r="C197" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M197" s="2" t="s">
+      <c r="K197" s="5"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N197" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2" t="s">
+      <c r="N197" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V197" s="2"/>
+      <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="2" t="s">
@@ -13239,9 +13199,7 @@
         <v>339</v>
       </c>
       <c r="K200" s="2"/>
-      <c r="L200" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L200" s="7"/>
       <c r="M200" s="2" t="s">
         <v>64</v>
       </c>
@@ -13295,9 +13253,7 @@
         <v>339</v>
       </c>
       <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L201" s="7"/>
       <c r="M201" s="2" t="s">
         <v>64</v>
       </c>
@@ -13459,9 +13415,7 @@
         <v>342</v>
       </c>
       <c r="K204" s="2"/>
-      <c r="L204" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L204" s="7"/>
       <c r="M204" s="2" t="s">
         <v>65</v>
       </c>
@@ -13515,9 +13469,7 @@
         <v>342</v>
       </c>
       <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L205" s="7"/>
       <c r="M205" s="2" t="s">
         <v>65</v>
       </c>
@@ -13571,9 +13523,7 @@
         <v>342</v>
       </c>
       <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L206" s="7"/>
       <c r="M206" s="2" t="s">
         <v>65</v>
       </c>
@@ -13735,9 +13685,7 @@
         <v>339</v>
       </c>
       <c r="K209" s="2"/>
-      <c r="L209" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L209" s="7"/>
       <c r="M209" s="2" t="s">
         <v>66</v>
       </c>
@@ -13791,9 +13739,7 @@
         <v>339</v>
       </c>
       <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L210" s="7"/>
       <c r="M210" s="2" t="s">
         <v>66</v>
       </c>
@@ -13955,9 +13901,7 @@
         <v>339</v>
       </c>
       <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L213" s="7"/>
       <c r="M213" s="2" t="s">
         <v>67</v>
       </c>
@@ -14011,9 +13955,7 @@
         <v>339</v>
       </c>
       <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L214" s="7"/>
       <c r="M214" s="2" t="s">
         <v>67</v>
       </c>
@@ -14175,9 +14117,7 @@
         <v>339</v>
       </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L217" s="7"/>
       <c r="M217" s="2" t="s">
         <v>68</v>
       </c>
@@ -14231,9 +14171,7 @@
         <v>339</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>68</v>
       </c>
@@ -14287,9 +14225,7 @@
         <v>339</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>68</v>
       </c>
@@ -14343,9 +14279,7 @@
         <v>339</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L220" s="7"/>
       <c r="M220" s="2" t="s">
         <v>68</v>
       </c>
@@ -14507,9 +14441,7 @@
         <v>339</v>
       </c>
       <c r="K223" s="2"/>
-      <c r="L223" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L223" s="7"/>
       <c r="M223" s="2" t="s">
         <v>69</v>
       </c>
@@ -14563,9 +14495,7 @@
         <v>339</v>
       </c>
       <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L224" s="7"/>
       <c r="M224" s="2" t="s">
         <v>69</v>
       </c>
@@ -14619,9 +14549,7 @@
         <v>339</v>
       </c>
       <c r="K225" s="2"/>
-      <c r="L225" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L225" s="7"/>
       <c r="M225" s="2" t="s">
         <v>69</v>
       </c>
@@ -14783,9 +14711,7 @@
         <v>339</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>70</v>
       </c>
@@ -15091,9 +15017,7 @@
         <v>339</v>
       </c>
       <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L234" s="7"/>
       <c r="M234" s="2" t="s">
         <v>71</v>
       </c>
@@ -15120,46 +15044,44 @@
       <c r="V234" s="2"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2" t="s">
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K235" s="2" t="s">
+      <c r="K235" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L235" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M235" s="2" t="s">
+      <c r="L235" s="7"/>
+      <c r="M235" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N235" s="2" t="s">
+      <c r="N235" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2" t="s">
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="V235" s="2" t="s">
+      <c r="V235" s="5" t="s">
         <v>415</v>
       </c>
     </row>
@@ -15430,44 +15352,42 @@
       </c>
     </row>
     <row r="241" spans="1:22">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2" t="s">
+      <c r="C241" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K241" s="2"/>
-      <c r="L241" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M241" s="2" t="s">
+      <c r="K241" s="5"/>
+      <c r="L241" s="7"/>
+      <c r="M241" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N241" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2" t="s">
+      <c r="N241" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="V241" s="2"/>
+      <c r="V241" s="5"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="2" t="s">
@@ -15860,46 +15780,44 @@
       <c r="V249" s="9"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2" t="s">
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K250" s="2" t="s">
+      <c r="K250" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="L250" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M250" s="2" t="s">
+      <c r="L250" s="7"/>
+      <c r="M250" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N250" s="2" t="s">
+      <c r="N250" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2" t="s">
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="V250" s="2" t="s">
+      <c r="V250" s="5" t="s">
         <v>416</v>
       </c>
     </row>
@@ -16170,46 +16088,44 @@
       </c>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
+      <c r="C256" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K256" s="2" t="s">
+      <c r="K256" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L256" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="L256" s="7"/>
+      <c r="M256" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N256" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
+      <c r="N256" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="V256" s="2" t="s">
+      <c r="V256" s="5" t="s">
         <v>396</v>
       </c>
     </row>
@@ -16561,9 +16477,7 @@
         <v>339</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L263" s="7"/>
       <c r="M263" s="2" t="s">
         <v>43</v>
       </c>
@@ -16876,46 +16790,44 @@
       <c r="V269" s="2"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2" t="s">
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K270" s="2" t="s">
+      <c r="K270" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L270" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M270" s="2" t="s">
+      <c r="L270" s="7"/>
+      <c r="M270" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N270" s="2" t="s">
+      <c r="N270" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2" t="s">
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="V270" s="2" t="s">
+      <c r="V270" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -17163,9 +17075,7 @@
         <v>339</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>77</v>
       </c>
@@ -17354,46 +17264,44 @@
       </c>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2" t="s">
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K279" s="2" t="s">
+      <c r="K279" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L279" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M279" s="2" t="s">
+      <c r="L279" s="7"/>
+      <c r="M279" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N279" s="2" t="s">
+      <c r="N279" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
-      <c r="S279" s="2"/>
-      <c r="T279" s="2"/>
-      <c r="U279" s="2" t="s">
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="V279" s="2" t="s">
+      <c r="V279" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -17641,9 +17549,7 @@
         <v>339</v>
       </c>
       <c r="K284" s="2"/>
-      <c r="L284" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L284" s="7"/>
       <c r="M284" s="2" t="s">
         <v>78</v>
       </c>
@@ -18052,46 +17958,44 @@
       </c>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2" t="s">
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K292" s="2" t="s">
+      <c r="K292" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L292" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M292" s="2" t="s">
+      <c r="L292" s="7"/>
+      <c r="M292" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N292" s="2" t="s">
+      <c r="N292" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="S292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="U292" s="2" t="s">
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="V292" s="2" t="s">
+      <c r="V292" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -18339,9 +18243,7 @@
         <v>339</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L297" s="7"/>
       <c r="M297" s="2" t="s">
         <v>79</v>
       </c>
@@ -18588,46 +18490,44 @@
       <c r="V301" s="2"/>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2" t="s">
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K302" s="2" t="s">
+      <c r="K302" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L302" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M302" s="2" t="s">
+      <c r="L302" s="7"/>
+      <c r="M302" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N302" s="2" t="s">
+      <c r="N302" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
-      <c r="Q302" s="2"/>
-      <c r="R302" s="2"/>
-      <c r="S302" s="2"/>
-      <c r="T302" s="2"/>
-      <c r="U302" s="2" t="s">
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="V302" s="2" t="s">
+      <c r="V302" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -18875,9 +18775,7 @@
         <v>339</v>
       </c>
       <c r="K307" s="2"/>
-      <c r="L307" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="L307" s="7"/>
       <c r="M307" s="2" t="s">
         <v>80</v>
       </c>
